--- a/Board/bom/csa_ultracpu-2.1a-bom.xlsx
+++ b/Board/bom/csa_ultracpu-2.1a-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="311">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -989,31 +989,15 @@
   <si>
     <t xml:space="preserve">Extras</t>
   </si>
-  <si>
-    <t xml:space="preserve">CSASHORTBUSFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">617-09282486804791 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSASHORTBUSMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">649-8693487313765ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86093487313765ELF</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1062,13 +1046,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -1088,15 +1065,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <strike val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,12 +1077,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1150,7 +1114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1175,10 +1139,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1195,47 +1155,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1422,14 +1358,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M287"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
-      <selection pane="bottomRight" activeCell="D88" activeCellId="0" sqref="D88"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1516,7 +1452,7 @@
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1543,10 +1479,10 @@
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1567,10 +1503,10 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1578,8 +1514,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1592,10 +1528,10 @@
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1603,11 +1539,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="2" t="n">
@@ -1617,22 +1553,22 @@
       <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="2" t="n">
@@ -1648,13 +1584,13 @@
       <c r="I8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1664,24 +1600,24 @@
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="2" t="n">
@@ -1694,10 +1630,10 @@
       <c r="H10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="10" t="n">
         <v>830207670409</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1718,10 +1654,10 @@
       <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1745,10 +1681,10 @@
       <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1772,10 +1708,10 @@
       <c r="F13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1799,10 +1735,10 @@
       <c r="F14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>78</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1826,10 +1762,10 @@
       <c r="F15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -1853,10 +1789,10 @@
       <c r="F16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1880,10 +1816,10 @@
       <c r="F17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -1907,10 +1843,10 @@
       <c r="F18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -1934,10 +1870,10 @@
       <c r="F19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>107</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -1961,10 +1897,10 @@
       <c r="F20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>113</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -1988,10 +1924,10 @@
       <c r="F21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>119</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -2015,10 +1951,10 @@
       <c r="F22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -2042,10 +1978,10 @@
       <c r="F23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>131</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2069,10 +2005,10 @@
       <c r="F24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -2096,10 +2032,10 @@
       <c r="F25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>143</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -2108,8 +2044,8 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="1"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
@@ -2131,7 +2067,7 @@
       <c r="A28" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2171,7 +2107,7 @@
       <c r="A30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2211,7 +2147,7 @@
       <c r="D32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>158</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -2220,10 +2156,10 @@
       <c r="I32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2259,10 +2195,10 @@
       <c r="F36" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2282,10 +2218,10 @@
       <c r="F37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2305,18 +2241,18 @@
       <c r="F38" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5"/>
       <c r="E39" s="1"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
@@ -2347,10 +2283,10 @@
       <c r="F41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2367,10 +2303,10 @@
       <c r="F42" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2403,10 +2339,10 @@
       <c r="F45" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="7" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2423,10 +2359,10 @@
       <c r="F46" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="7" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2443,10 +2379,10 @@
       <c r="F47" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="7" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2463,16 +2399,16 @@
       <c r="F48" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="7" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2489,10 +2425,10 @@
       <c r="F49" s="1" t="n">
         <v>470</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2535,10 +2471,10 @@
       <c r="I51" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="7" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2562,16 +2498,16 @@
       <c r="F53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
@@ -2590,7 +2526,7 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>226</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2602,16 +2538,16 @@
       <c r="F56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2631,10 +2567,10 @@
       <c r="F57" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I57" s="7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2673,13 +2609,13 @@
       <c r="H60" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="7" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2699,10 +2635,10 @@
       <c r="F61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="7" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2722,10 +2658,10 @@
       <c r="F62" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="7" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2745,10 +2681,10 @@
       <c r="F63" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="7" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2756,7 +2692,7 @@
       <c r="D64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>260</v>
       </c>
       <c r="H64" s="1" t="s">
@@ -2765,53 +2701,53 @@
       <c r="I64" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J64" s="13" t="s">
+      <c r="J64" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="K64" s="13" t="s">
+      <c r="K64" s="11" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="n">
+      <c r="A65" s="12" t="n">
         <v>89</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>266</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="14" t="s">
+      <c r="E65" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14" t="s">
+      <c r="G65" s="12"/>
+      <c r="H65" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="7" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2831,10 +2767,10 @@
       <c r="F67" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="7" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2842,7 +2778,7 @@
       <c r="A68" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2854,26 +2790,26 @@
       <c r="F68" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="L68" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="M68" s="8" t="s">
+      <c r="M68" s="7" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
@@ -2910,13 +2846,13 @@
       <c r="H72" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="J72" s="13" t="s">
+      <c r="J72" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="K72" s="13" t="s">
+      <c r="K72" s="11" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2936,16 +2872,16 @@
       <c r="F73" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
@@ -2979,16 +2915,16 @@
       <c r="F76" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
@@ -3014,22 +2950,22 @@
       <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="J80" s="8"/>
+      <c r="J80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="7" t="s">
         <v>305</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -3038,10 +2974,10 @@
       <c r="I81" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="7" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3050,9 +2986,9 @@
       <c r="E82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="16"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="B83" s="14"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
@@ -3071,984 +3007,9 @@
       <c r="L84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="16"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="I86" s="8" t="n">
-        <v>9282486804791</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="16"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="16"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="16"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="16"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="16"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="16"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="16"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="16"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="16"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="1"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="1"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="1"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="1"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="1"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="1"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="8"/>
-      <c r="E106" s="1"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="8"/>
-      <c r="E107" s="1"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="8"/>
-      <c r="E108" s="1"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="1"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="1"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="1"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="1"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="1"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="1"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="1"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="1"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="1"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="1"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="1"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="1"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I147" s="8"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H149" s="13"/>
-      <c r="I149" s="13"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="8"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J155" s="8"/>
-      <c r="K155" s="17"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="1"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="18"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H159" s="13"/>
-      <c r="I159" s="13"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H162" s="8"/>
-      <c r="I162" s="17"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H165" s="8"/>
-      <c r="I165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H167" s="8"/>
-      <c r="I167" s="18"/>
-      <c r="J167" s="13"/>
-      <c r="K167" s="13"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H168" s="13"/>
-      <c r="I168" s="13"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="13"/>
-      <c r="K173" s="13"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H175" s="13"/>
-      <c r="I175" s="13"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H178" s="13"/>
-      <c r="I178" s="13"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H183" s="8"/>
-      <c r="I183" s="8"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H185" s="8"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
-      <c r="K185" s="8"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H186" s="8"/>
-      <c r="I186" s="8"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H188" s="8"/>
-      <c r="I188" s="8"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J190" s="8"/>
-      <c r="K190" s="8"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H192" s="13"/>
-      <c r="I192" s="13"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H193" s="8"/>
-      <c r="I193" s="8"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H202" s="13"/>
-      <c r="I202" s="13"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H203" s="8"/>
-      <c r="I203" s="13"/>
-      <c r="J203" s="7"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H204" s="13"/>
-      <c r="I204" s="13"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="13"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="5"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J212" s="8"/>
-      <c r="K212" s="8"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H219" s="13"/>
-      <c r="I219" s="13"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H220" s="13"/>
-      <c r="I220" s="13"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H224" s="8"/>
-      <c r="I224" s="8"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H225" s="8"/>
-      <c r="I225" s="17"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H226" s="8"/>
-      <c r="I226" s="17"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H227" s="13"/>
-      <c r="I227" s="13"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H228" s="8"/>
-      <c r="I228" s="17"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
-      <c r="K229" s="17"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H231" s="8"/>
-      <c r="I231" s="8"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H234" s="20"/>
-      <c r="I234" s="17"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H235" s="13"/>
-      <c r="I235" s="13"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H236" s="8"/>
-      <c r="I236" s="17"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H239" s="8"/>
-      <c r="I239" s="8"/>
-      <c r="J239" s="8"/>
-      <c r="K239" s="8"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F241" s="8"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="17"/>
-      <c r="J241" s="8"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F242" s="8"/>
-      <c r="H242" s="8"/>
-      <c r="I242" s="8"/>
-      <c r="J242" s="8"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F243" s="8"/>
-      <c r="H243" s="8"/>
-      <c r="I243" s="8"/>
-      <c r="J243" s="8"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F244" s="8"/>
-      <c r="H244" s="8"/>
-      <c r="I244" s="8"/>
-      <c r="J244" s="8"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F245" s="8"/>
-      <c r="H245" s="8"/>
-      <c r="I245" s="8"/>
-      <c r="J245" s="8"/>
-      <c r="K245" s="17"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F246" s="8"/>
-      <c r="H246" s="8"/>
-      <c r="I246" s="8"/>
-      <c r="J246" s="8"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F247" s="8"/>
-      <c r="J247" s="7"/>
-      <c r="K247" s="8"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="4"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H249" s="8"/>
-      <c r="I249" s="8"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H250" s="8"/>
-      <c r="I250" s="8"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H252" s="8"/>
-      <c r="I252" s="8"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H253" s="8"/>
-      <c r="I253" s="8"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H255" s="8"/>
-      <c r="I255" s="8"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H256" s="8"/>
-      <c r="I256" s="8"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H257" s="8"/>
-      <c r="I257" s="8"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
-      <c r="K259" s="8"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J260" s="8"/>
-      <c r="K260" s="8"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H262" s="8"/>
-      <c r="I262" s="8"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H263" s="8"/>
-      <c r="I263" s="8"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H264" s="8"/>
-      <c r="I264" s="8"/>
-      <c r="J264" s="8"/>
-      <c r="K264" s="8"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="1"/>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H266" s="13"/>
-      <c r="I266" s="13"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H267" s="8"/>
-      <c r="I267" s="8"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
-      <c r="I268" s="3"/>
-      <c r="J268" s="3"/>
-      <c r="K268" s="3"/>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H269" s="13"/>
-      <c r="I269" s="13"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
-      <c r="I271" s="3"/>
-      <c r="J271" s="3"/>
-      <c r="K271" s="3"/>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H272" s="8"/>
-      <c r="I272" s="17"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H273" s="13"/>
-      <c r="I273" s="13"/>
-    </row>
-    <row r="274" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="13"/>
-      <c r="I274" s="13"/>
-      <c r="J274" s="1"/>
-      <c r="K274" s="1"/>
-      <c r="L274" s="1"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H275" s="8"/>
-      <c r="I275" s="8"/>
-    </row>
-    <row r="276" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D276" s="2"/>
-      <c r="E276" s="15"/>
-      <c r="H276" s="21"/>
-      <c r="I276" s="21"/>
-      <c r="J276" s="21"/>
-      <c r="K276" s="21"/>
-      <c r="L276" s="1"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
-      <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
-      <c r="K277" s="3"/>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="14"/>
-      <c r="B278" s="14"/>
-      <c r="C278" s="14"/>
-      <c r="E278" s="15"/>
-      <c r="F278" s="14"/>
-      <c r="G278" s="14"/>
-      <c r="H278" s="14"/>
-      <c r="I278" s="14"/>
-      <c r="J278" s="14"/>
-      <c r="K278" s="14"/>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F279" s="8"/>
-      <c r="H279" s="8"/>
-      <c r="I279" s="8"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H280" s="8"/>
-      <c r="I280" s="8"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F281" s="8"/>
-      <c r="J281" s="13"/>
-      <c r="K281" s="13"/>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H282" s="13"/>
-      <c r="I282" s="13"/>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H283" s="13"/>
-      <c r="I283" s="13"/>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F284" s="8"/>
-      <c r="H284" s="13"/>
-      <c r="I284" s="13"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="3"/>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
-      <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
-      <c r="K285" s="3"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="12"/>
+      <c r="B85" s="14"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
